--- a/src/Web/static/reports/InvoiceTemplate2_persey.xlsx
+++ b/src/Web/static/reports/InvoiceTemplate2_persey.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\git\Luxena.Travel\src\Web\static\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9044619C-0C77-4539-BB2B-DEC2D10D5397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5025784-B9BD-4E61-99A0-040063DB21EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1464" yWindow="1464" windowWidth="23040" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Рахунок-фактура" sheetId="1" r:id="rId1"/>
@@ -88,9 +88,6 @@
     <t>[[Totals.Amount]]</t>
   </si>
   <si>
-    <t>Виписав(ла):  ________________  [[IssuedBy]]</t>
-  </si>
-  <si>
     <t>[[FooterDetails]]</t>
   </si>
   <si>
@@ -131,6 +128,9 @@
   </si>
   <si>
     <t>Рахунок на оплату № [[Number]]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 Виписав(ла):  _________________________________  [[IssuedBy]]</t>
   </si>
 </sst>
 </file>
@@ -426,46 +426,46 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -746,164 +746,164 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:K10"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="27.5546875" customWidth="1"/>
+    <col min="3" max="3" width="27.53125" customWidth="1"/>
     <col min="4" max="4" width="4" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="5.21875" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="5.19921875" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="2" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="10.77734375" customWidth="1"/>
-    <col min="8" max="10" width="8.77734375" customWidth="1"/>
-    <col min="11" max="11" width="10.77734375" customWidth="1"/>
+    <col min="7" max="7" width="10.796875" customWidth="1"/>
+    <col min="8" max="10" width="8.796875" customWidth="1"/>
+    <col min="11" max="11" width="10.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="120" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+    </row>
+    <row r="3" spans="1:11" ht="13.15" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+    </row>
+    <row r="5" spans="1:11" ht="13.15" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+    </row>
+    <row r="7" spans="1:11" ht="13.15" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-    </row>
-    <row r="8" spans="1:11" ht="25.8" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-    </row>
-    <row r="10" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="21" t="s">
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+    </row>
+    <row r="8" spans="1:11" ht="25.8" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.4">
+      <c r="A9" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+    </row>
+    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.4">
+      <c r="A10" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-    </row>
-    <row r="12" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+    </row>
+    <row r="12" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="23"/>
+      <c r="D12" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="31"/>
-      <c r="D12" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="G12" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="H12" s="24" t="s">
+      <c r="I12" s="25"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="22"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="I12" s="25"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="27" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="23"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="16" t="s">
+      <c r="I13" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="I13" s="17" t="s">
+      <c r="J13" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="J13" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="K13" s="28"/>
-    </row>
-    <row r="14" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K13" s="30"/>
+    </row>
+    <row r="14" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="30"/>
+      <c r="C14" s="20"/>
       <c r="D14" s="11" t="s">
         <v>8</v>
       </c>
@@ -917,75 +917,76 @@
         <v>18</v>
       </c>
       <c r="H14" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="I14" s="14" t="s">
+      <c r="J14" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="J14" s="14" t="s">
+      <c r="K14" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="K14" s="13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="3"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="5"/>
       <c r="E15" s="3"/>
       <c r="J15" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G23" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="32" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="35" spans="1:7" s="8" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="9" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:7" s="8" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="A9:K9"/>
+    <mergeCell ref="C1:K1"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="A10:K10"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="K12:K13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="B12:C13"/>
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="A10:K10"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="A9:K9"/>
-    <mergeCell ref="C1:K1"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
